--- a/0. Autodesk Vault API basics/0.1. API structure/Autodesk Vault 2014 API Services Catalog.xlsx
+++ b/0. Autodesk Vault API basics/0.1. API structure/Autodesk Vault 2014 API Services Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>AdminService</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Workgroup</t>
   </si>
   <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
     <t>Professional</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
   </si>
   <si>
     <t>Vault Workgroup</t>
-  </si>
-  <si>
-    <t>Vault Collaboration</t>
   </si>
   <si>
     <t>Vault Professional</t>
@@ -269,7 +263,250 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="108">
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -945,12 +1182,12 @@
         <c:gapWidth val="1"/>
         <c:gapDepth val="0"/>
         <c:shape val="box"/>
-        <c:axId val="267958528"/>
-        <c:axId val="267972608"/>
-        <c:axId val="262297792"/>
+        <c:axId val="338806272"/>
+        <c:axId val="338807808"/>
+        <c:axId val="257779456"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="267958528"/>
+        <c:axId val="338806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267972608"/>
+        <c:crossAx val="338807808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +1204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267972608"/>
+        <c:axId val="338807808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -980,14 +1217,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267958528"/>
+        <c:crossAx val="338806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="262297792"/>
+        <c:axId val="257779456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267972608"/>
+        <c:crossAx val="338807808"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -1049,11 +1286,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ed" refreshedDate="41688.519963657411" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ed" refreshedDate="41690.631004166666" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="7">
     <cacheField name="Service name" numFmtId="0">
       <sharedItems count="23">
         <s v="AdminService"/>
@@ -1124,9 +1361,6 @@
     <cacheField name="Workgroup" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
     </cacheField>
-    <cacheField name="Collaboration" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
-    </cacheField>
     <cacheField name="Professional" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
     </cacheField>
@@ -1157,14 +1391,12 @@
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
@@ -1177,14 +1409,12 @@
     <n v="1"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
@@ -1196,7 +1426,6 @@
     <x v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -1206,7 +1435,6 @@
     <x v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -1214,7 +1442,6 @@
     <x v="6"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
@@ -1227,7 +1454,6 @@
     <n v="0"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1237,14 +1463,12 @@
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="1"/>
   </r>
   <r>
     <x v="9"/>
     <x v="9"/>
     <x v="0"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
@@ -1256,7 +1480,6 @@
     <x v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -1267,7 +1490,6 @@
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1277,14 +1499,12 @@
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <x v="13"/>
     <x v="0"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <n v="2"/>
@@ -1296,7 +1516,6 @@
     <x v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -1307,7 +1526,6 @@
     <n v="1"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1315,7 +1533,6 @@
     <x v="16"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1326,7 +1543,6 @@
     <x v="2"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="0"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -1335,7 +1551,6 @@
     <x v="18"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1347,7 +1562,6 @@
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1357,7 +1571,6 @@
     <n v="1"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1365,7 +1578,6 @@
     <x v="21"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="2"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1377,16 +1589,15 @@
     <n v="0"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="2"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:H26" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:G26" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="23">
         <item x="0"/>
@@ -1454,7 +1665,6 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -1466,7 +1676,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="4">
-    <field x="7"/>
+    <field x="6"/>
     <field x="2"/>
     <field x="0"/>
     <field x="1"/>
@@ -1577,7 +1787,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="3">
     <i>
       <x/>
     </i>
@@ -1587,21 +1797,17 @@
     <i i="2">
       <x v="2"/>
     </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
   </colItems>
-  <dataFields count="4">
+  <dataFields count="3">
     <dataField name="Vault Basic" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Vault Workgroup" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Vault Collaboration" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Vault Professional" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Vault Professional" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="26">
+    <format dxfId="107">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1610,13 +1816,13 @@
           <reference field="1" count="1">
             <x v="15"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1625,13 +1831,13 @@
           <reference field="1" count="1">
             <x v="7"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1640,13 +1846,13 @@
           <reference field="1" count="1">
             <x v="8"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1655,13 +1861,13 @@
           <reference field="1" count="1">
             <x v="2"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1670,13 +1876,13 @@
           <reference field="1" count="1">
             <x v="3"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1685,13 +1891,13 @@
           <reference field="1" count="1">
             <x v="9"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1700,13 +1906,13 @@
           <reference field="1" count="1">
             <x v="20"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1715,13 +1921,13 @@
           <reference field="1" count="1">
             <x v="16"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1730,13 +1936,13 @@
           <reference field="1" count="1">
             <x v="19"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1745,13 +1951,13 @@
           <reference field="1" count="1">
             <x v="10"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1760,13 +1966,13 @@
           <reference field="1" count="1">
             <x v="14"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1775,13 +1981,13 @@
           <reference field="1" count="1">
             <x v="4"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1790,13 +1996,13 @@
           <reference field="1" count="1">
             <x v="11"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1805,13 +2011,13 @@
           <reference field="1" count="1">
             <x v="5"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1820,13 +2026,13 @@
           <reference field="1" count="1">
             <x v="12"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1835,13 +2041,13 @@
           <reference field="1" count="1">
             <x v="18"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1850,13 +2056,13 @@
           <reference field="1" count="1">
             <x v="13"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1865,13 +2071,13 @@
           <reference field="1" count="1">
             <x v="17"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1880,13 +2086,13 @@
           <reference field="1" count="1">
             <x v="0"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1895,13 +2101,13 @@
           <reference field="1" count="1">
             <x v="1"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1910,13 +2116,13 @@
           <reference field="1" count="1">
             <x v="21"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1925,13 +2131,13 @@
           <reference field="1" count="1">
             <x v="22"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -1940,16 +2146,16 @@
           <reference field="1" count="1">
             <x v="6"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="83">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="5">
@@ -1959,20 +2165,20 @@
             <x v="3"/>
             <x v="5"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
             <x v="0"/>
             <x v="4"/>
           </reference>
-          <reference field="7" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -1989,15 +2195,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H24" totalsRowShown="0">
-  <autoFilter ref="A1:H24"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Service name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Availability"/>
     <tableColumn id="5" name="Basic"/>
     <tableColumn id="8" name="Workgroup"/>
-    <tableColumn id="7" name="Collaboration"/>
     <tableColumn id="6" name="Professional"/>
     <tableColumn id="4" name="Location"/>
   </tableColumns>
@@ -2310,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,11 +2528,11 @@
     <col min="3" max="3" width="96.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2347,13 +2552,10 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2372,14 +2574,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2398,14 +2597,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2424,14 +2620,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2450,14 +2643,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2474,16 +2664,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2500,16 +2687,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2528,14 +2712,11 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2554,14 +2735,11 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2580,14 +2758,11 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2606,14 +2781,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2630,16 +2802,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2658,14 +2827,11 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2684,14 +2850,11 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2710,14 +2873,11 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2734,16 +2894,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2762,14 +2919,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2788,14 +2942,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2812,16 +2963,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2840,14 +2988,11 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2866,14 +3011,11 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2892,14 +3034,11 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2918,14 +3057,11 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2944,11 +3080,8 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>65</v>
+      <c r="G24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2962,25 +3095,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H26"/>
+  <dimension ref="A3:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,21 +3126,18 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -3028,11 +3157,8 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -3048,11 +3174,8 @@
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -3068,11 +3191,8 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>28</v>
       </c>
@@ -3088,11 +3208,8 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -3108,11 +3225,8 @@
       <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3131,11 +3245,8 @@
       <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -3151,11 +3262,8 @@
       <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>36</v>
       </c>
@@ -3171,11 +3279,8 @@
       <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>40</v>
       </c>
@@ -3191,11 +3296,8 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -3211,11 +3313,8 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>47</v>
       </c>
@@ -3231,11 +3330,8 @@
       <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
@@ -3254,11 +3350,8 @@
       <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -3277,11 +3370,8 @@
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -3298,13 +3388,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -3318,13 +3405,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -3338,13 +3422,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -3358,13 +3439,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -3378,15 +3456,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>2</v>
@@ -3406,11 +3481,8 @@
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -3426,11 +3498,8 @@
       <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>22</v>
       </c>
@@ -3446,11 +3515,8 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -3466,11 +3532,8 @@
       <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
@@ -3487,9 +3550,6 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3503,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,7 +3586,7 @@
         <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
